--- a/biology/Mycologie/Boletus_gertrudiae/Boletus_gertrudiae.xlsx
+++ b/biology/Mycologie/Boletus_gertrudiae/Boletus_gertrudiae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus gertrudiae, de son nom vernaculaire en français cèpe de Gertrude, est une espèce de champignons basidiomycètes, comestible, d'Amérique du Nord du genre Boletus de la famille des Boletaceae. Il est proche du groupe des Boletus edulis, mais l'analyse phylogénétique tend à prouver qu'il s'agit d'une espèce différente.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial proposé
-Boletus gertrudiae[réf. souhaitée]
+          <t>Nom binomial proposé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boletus gertrudiae[réf. souhaitée]
 </t>
         </is>
       </c>
@@ -543,7 +560,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Hymenium
@@ -579,7 +598,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Amérique du Nord
 </t>
@@ -611,6 +632,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,7 +659,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Souvent vendu hors de Chine comme Boletus edulis séché.
 </t>
